--- a/natmiOut/YoungD7/LR-pairs_lrc2p/C3-C5ar2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/C3-C5ar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.83010728363139</v>
+        <v>40.942832</v>
       </c>
       <c r="H2">
-        <v>1.83010728363139</v>
+        <v>122.828496</v>
       </c>
       <c r="I2">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="J2">
-        <v>0.01639627291296671</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>6.55468400249263</v>
+        <v>24.12906</v>
       </c>
       <c r="N2">
-        <v>6.55468400249263</v>
+        <v>72.38718</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.7578756968848996</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.7578756968848996</v>
       </c>
       <c r="Q2">
-        <v>11.99577493486392</v>
+        <v>987.91204989792</v>
       </c>
       <c r="R2">
-        <v>11.99577493486392</v>
+        <v>8891.208449081279</v>
       </c>
       <c r="S2">
-        <v>0.01639627291296671</v>
+        <v>0.1957592929438133</v>
       </c>
       <c r="T2">
-        <v>0.01639627291296671</v>
+        <v>0.1957592929438133</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>74.57477241737681</v>
+        <v>40.942832</v>
       </c>
       <c r="H3">
-        <v>74.57477241737681</v>
+        <v>122.828496</v>
       </c>
       <c r="I3">
-        <v>0.6681293123709416</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="J3">
-        <v>0.6681293123709416</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>6.55468400249263</v>
+        <v>0.6016783333333333</v>
       </c>
       <c r="N3">
-        <v>6.55468400249263</v>
+        <v>1.805035</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.01889826566702329</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.01889826566702329</v>
       </c>
       <c r="Q3">
-        <v>488.8140677537084</v>
+        <v>24.63441491970667</v>
       </c>
       <c r="R3">
-        <v>488.8140677537084</v>
+        <v>221.70973427736</v>
       </c>
       <c r="S3">
-        <v>0.6681293123709416</v>
+        <v>0.004881422032725077</v>
       </c>
       <c r="T3">
-        <v>0.6681293123709416</v>
+        <v>0.004881422032725077</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,57 +655,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.8682733021744</v>
+        <v>40.942832</v>
       </c>
       <c r="H4">
-        <v>34.8682733021744</v>
+        <v>122.828496</v>
       </c>
       <c r="I4">
-        <v>0.3123913719046829</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="J4">
-        <v>0.3123913719046829</v>
+        <v>0.2583000005785167</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.55468400249263</v>
+        <v>7.067793666666666</v>
       </c>
       <c r="N4">
-        <v>6.55468400249263</v>
+        <v>21.203381</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.2219941038135625</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.2219941038135625</v>
       </c>
       <c r="Q4">
-        <v>228.5505132083034</v>
+        <v>289.3754887049973</v>
       </c>
       <c r="R4">
-        <v>228.5505132083034</v>
+        <v>2604.379398344975</v>
       </c>
       <c r="S4">
-        <v>0.3123913719046829</v>
+        <v>0.05734107714347049</v>
       </c>
       <c r="T4">
-        <v>0.3123913719046829</v>
+        <v>0.05734107714347048</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,799 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>40.942832</v>
+      </c>
+      <c r="H5">
+        <v>122.828496</v>
+      </c>
+      <c r="I5">
+        <v>0.2583000005785167</v>
+      </c>
+      <c r="J5">
+        <v>0.2583000005785167</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.039222</v>
+      </c>
+      <c r="N5">
+        <v>0.117666</v>
+      </c>
+      <c r="O5">
+        <v>0.001231933634514545</v>
+      </c>
+      <c r="P5">
+        <v>0.001231933634514545</v>
+      </c>
+      <c r="Q5">
+        <v>1.605859756704</v>
+      </c>
+      <c r="R5">
+        <v>14.452737810336</v>
+      </c>
+      <c r="S5">
+        <v>0.0003182084585078012</v>
+      </c>
+      <c r="T5">
+        <v>0.0003182084585078012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>79.68771233333334</v>
+      </c>
+      <c r="H6">
+        <v>239.063137</v>
+      </c>
+      <c r="I6">
+        <v>0.5027335710876245</v>
+      </c>
+      <c r="J6">
+        <v>0.5027335710876245</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>24.12906</v>
+      </c>
+      <c r="N6">
+        <v>72.38718</v>
+      </c>
+      <c r="O6">
+        <v>0.7578756968848996</v>
+      </c>
+      <c r="P6">
+        <v>0.7578756968848996</v>
+      </c>
+      <c r="Q6">
+        <v>1922.78959215374</v>
+      </c>
+      <c r="R6">
+        <v>17305.10632938366</v>
+      </c>
+      <c r="S6">
+        <v>0.3810095555354677</v>
+      </c>
+      <c r="T6">
+        <v>0.3810095555354677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>79.68771233333334</v>
+      </c>
+      <c r="H7">
+        <v>239.063137</v>
+      </c>
+      <c r="I7">
+        <v>0.5027335710876245</v>
+      </c>
+      <c r="J7">
+        <v>0.5027335710876245</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.6016783333333333</v>
+      </c>
+      <c r="N7">
+        <v>1.805035</v>
+      </c>
+      <c r="O7">
+        <v>0.01889826566702329</v>
+      </c>
+      <c r="P7">
+        <v>0.01889826566702329</v>
+      </c>
+      <c r="Q7">
+        <v>47.94636994386611</v>
+      </c>
+      <c r="R7">
+        <v>431.517329494795</v>
+      </c>
+      <c r="S7">
+        <v>0.009500792586145265</v>
+      </c>
+      <c r="T7">
+        <v>0.009500792586145265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.34412083373193</v>
-      </c>
-      <c r="H5">
-        <v>0.34412083373193</v>
-      </c>
-      <c r="I5">
-        <v>0.003083042811408648</v>
-      </c>
-      <c r="J5">
-        <v>0.003083042811408648</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>6.55468400249263</v>
-      </c>
-      <c r="N5">
-        <v>6.55468400249263</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>2.255603323787108</v>
-      </c>
-      <c r="R5">
-        <v>2.255603323787108</v>
-      </c>
-      <c r="S5">
-        <v>0.003083042811408648</v>
-      </c>
-      <c r="T5">
-        <v>0.003083042811408648</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>79.68771233333334</v>
+      </c>
+      <c r="H8">
+        <v>239.063137</v>
+      </c>
+      <c r="I8">
+        <v>0.5027335710876245</v>
+      </c>
+      <c r="J8">
+        <v>0.5027335710876245</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>7.067793666666666</v>
+      </c>
+      <c r="N8">
+        <v>21.203381</v>
+      </c>
+      <c r="O8">
+        <v>0.2219941038135625</v>
+      </c>
+      <c r="P8">
+        <v>0.2219941038135625</v>
+      </c>
+      <c r="Q8">
+        <v>563.2163085406885</v>
+      </c>
+      <c r="R8">
+        <v>5068.946776866196</v>
+      </c>
+      <c r="S8">
+        <v>0.1116038885705891</v>
+      </c>
+      <c r="T8">
+        <v>0.1116038885705891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>79.68771233333334</v>
+      </c>
+      <c r="H9">
+        <v>239.063137</v>
+      </c>
+      <c r="I9">
+        <v>0.5027335710876245</v>
+      </c>
+      <c r="J9">
+        <v>0.5027335710876245</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.039222</v>
+      </c>
+      <c r="N9">
+        <v>0.117666</v>
+      </c>
+      <c r="O9">
+        <v>0.001231933634514545</v>
+      </c>
+      <c r="P9">
+        <v>0.001231933634514545</v>
+      </c>
+      <c r="Q9">
+        <v>3.125511453138</v>
+      </c>
+      <c r="R9">
+        <v>28.129603078242</v>
+      </c>
+      <c r="S9">
+        <v>0.0006193343954224537</v>
+      </c>
+      <c r="T9">
+        <v>0.0006193343954224537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>37.53186833333334</v>
+      </c>
+      <c r="H10">
+        <v>112.595605</v>
+      </c>
+      <c r="I10">
+        <v>0.2367809244903433</v>
+      </c>
+      <c r="J10">
+        <v>0.2367809244903433</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>24.12906</v>
+      </c>
+      <c r="N10">
+        <v>72.38718</v>
+      </c>
+      <c r="O10">
+        <v>0.7578756968848996</v>
+      </c>
+      <c r="P10">
+        <v>0.7578756968848996</v>
+      </c>
+      <c r="Q10">
+        <v>905.6087029271</v>
+      </c>
+      <c r="R10">
+        <v>8150.4783263439</v>
+      </c>
+      <c r="S10">
+        <v>0.1794505081571697</v>
+      </c>
+      <c r="T10">
+        <v>0.1794505081571697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>37.53186833333334</v>
+      </c>
+      <c r="H11">
+        <v>112.595605</v>
+      </c>
+      <c r="I11">
+        <v>0.2367809244903433</v>
+      </c>
+      <c r="J11">
+        <v>0.2367809244903433</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.6016783333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.805035</v>
+      </c>
+      <c r="O11">
+        <v>0.01889826566702329</v>
+      </c>
+      <c r="P11">
+        <v>0.01889826566702329</v>
+      </c>
+      <c r="Q11">
+        <v>22.58211198568611</v>
+      </c>
+      <c r="R11">
+        <v>203.239007871175</v>
+      </c>
+      <c r="S11">
+        <v>0.004474748815901888</v>
+      </c>
+      <c r="T11">
+        <v>0.004474748815901887</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>37.53186833333334</v>
+      </c>
+      <c r="H12">
+        <v>112.595605</v>
+      </c>
+      <c r="I12">
+        <v>0.2367809244903433</v>
+      </c>
+      <c r="J12">
+        <v>0.2367809244903433</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>7.067793666666666</v>
+      </c>
+      <c r="N12">
+        <v>21.203381</v>
+      </c>
+      <c r="O12">
+        <v>0.2219941038135625</v>
+      </c>
+      <c r="P12">
+        <v>0.2219941038135625</v>
+      </c>
+      <c r="Q12">
+        <v>265.2675013045005</v>
+      </c>
+      <c r="R12">
+        <v>2387.407511740505</v>
+      </c>
+      <c r="S12">
+        <v>0.05256396913238059</v>
+      </c>
+      <c r="T12">
+        <v>0.05256396913238057</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>37.53186833333334</v>
+      </c>
+      <c r="H13">
+        <v>112.595605</v>
+      </c>
+      <c r="I13">
+        <v>0.2367809244903433</v>
+      </c>
+      <c r="J13">
+        <v>0.2367809244903433</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.039222</v>
+      </c>
+      <c r="N13">
+        <v>0.117666</v>
+      </c>
+      <c r="O13">
+        <v>0.001231933634514545</v>
+      </c>
+      <c r="P13">
+        <v>0.001231933634514545</v>
+      </c>
+      <c r="Q13">
+        <v>1.47207493977</v>
+      </c>
+      <c r="R13">
+        <v>13.24867445793</v>
+      </c>
+      <c r="S13">
+        <v>0.0002916983848911027</v>
+      </c>
+      <c r="T13">
+        <v>0.0002916983848911027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3464216666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.039265</v>
+      </c>
+      <c r="I14">
+        <v>0.002185503843515531</v>
+      </c>
+      <c r="J14">
+        <v>0.002185503843515531</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>24.12906</v>
+      </c>
+      <c r="N14">
+        <v>72.38718</v>
+      </c>
+      <c r="O14">
+        <v>0.7578756968848996</v>
+      </c>
+      <c r="P14">
+        <v>0.7578756968848996</v>
+      </c>
+      <c r="Q14">
+        <v>8.358829180299999</v>
+      </c>
+      <c r="R14">
+        <v>75.2294626227</v>
+      </c>
+      <c r="S14">
+        <v>0.00165634024844896</v>
+      </c>
+      <c r="T14">
+        <v>0.00165634024844896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3464216666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.039265</v>
+      </c>
+      <c r="I15">
+        <v>0.002185503843515531</v>
+      </c>
+      <c r="J15">
+        <v>0.002185503843515531</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.6016783333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.805035</v>
+      </c>
+      <c r="O15">
+        <v>0.01889826566702329</v>
+      </c>
+      <c r="P15">
+        <v>0.01889826566702329</v>
+      </c>
+      <c r="Q15">
+        <v>0.2084344110305555</v>
+      </c>
+      <c r="R15">
+        <v>1.875909699275</v>
+      </c>
+      <c r="S15">
+        <v>4.1302232251057E-05</v>
+      </c>
+      <c r="T15">
+        <v>4.1302232251057E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3464216666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.039265</v>
+      </c>
+      <c r="I16">
+        <v>0.002185503843515531</v>
+      </c>
+      <c r="J16">
+        <v>0.002185503843515531</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>7.067793666666666</v>
+      </c>
+      <c r="N16">
+        <v>21.203381</v>
+      </c>
+      <c r="O16">
+        <v>0.2219941038135625</v>
+      </c>
+      <c r="P16">
+        <v>0.2219941038135625</v>
+      </c>
+      <c r="Q16">
+        <v>2.448436861662777</v>
+      </c>
+      <c r="R16">
+        <v>22.035931754965</v>
+      </c>
+      <c r="S16">
+        <v>0.0004851689671223268</v>
+      </c>
+      <c r="T16">
+        <v>0.0004851689671223268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3464216666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.039265</v>
+      </c>
+      <c r="I17">
+        <v>0.002185503843515531</v>
+      </c>
+      <c r="J17">
+        <v>0.002185503843515531</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.039222</v>
+      </c>
+      <c r="N17">
+        <v>0.117666</v>
+      </c>
+      <c r="O17">
+        <v>0.001231933634514545</v>
+      </c>
+      <c r="P17">
+        <v>0.001231933634514545</v>
+      </c>
+      <c r="Q17">
+        <v>0.01358735061</v>
+      </c>
+      <c r="R17">
+        <v>0.12228615549</v>
+      </c>
+      <c r="S17">
+        <v>2.692395693187596E-06</v>
+      </c>
+      <c r="T17">
+        <v>2.692395693187596E-06</v>
       </c>
     </row>
   </sheetData>
